--- a/Draft Excel Codelists/draft_equipment_codelist_R01_20240510.xlsx
+++ b/Draft Excel Codelists/draft_equipment_codelist_R01_20240510.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pagov-my.sharepoint.com/personal/samullaney_pa_gov/Documents/BOCM/DIGGS/Codelist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="8_{D0F9AA02-389B-4EB2-98FE-5BB092C952B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBA0F893-6E55-4FA7-A7E5-F2F381C2D8AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A5673-5D33-284E-9CD7-F2FEE654E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="60160" windowHeight="28720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1195,12 +1195,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1721,15 +1715,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1755,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>251</v>
       </c>
@@ -1769,12 +1763,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>253</v>
       </c>
@@ -1793,24 +1787,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="70.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="19.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -1861,7 +1855,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -1882,11 +1876,11 @@
       <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -1911,7 +1905,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -1936,7 +1930,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -1957,11 +1951,11 @@
       <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -1986,7 +1980,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -2011,7 +2005,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -2036,7 +2030,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -2061,7 +2055,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -2086,8 +2080,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="str">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2096,12 +2090,12 @@
         <v/>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2110,12 +2104,12 @@
         <v/>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="str">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2124,12 +2118,12 @@
         <v/>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="str">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2138,11 +2132,11 @@
         <v/>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -2163,11 +2157,11 @@
       <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -2188,12 +2182,12 @@
       <c r="G17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="str">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2204,13 +2198,13 @@
       <c r="C18" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="str">
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2219,12 +2213,12 @@
         <v/>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="str">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2233,12 +2227,12 @@
         <v/>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="str">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2247,12 +2241,12 @@
         <v/>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="str">
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2263,7 +2257,7 @@
       <c r="C22" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>296</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2276,8 +2270,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="str">
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2288,7 +2282,7 @@
       <c r="C23" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>316</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2301,8 +2295,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="str">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2313,7 +2307,7 @@
       <c r="C24" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>278</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2326,8 +2320,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="str">
+    <row r="25" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2338,7 +2332,7 @@
       <c r="C25" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>281</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2351,8 +2345,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="str">
+    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2363,7 +2357,7 @@
       <c r="C26" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>306</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2376,8 +2370,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="str">
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2858,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2388,7 +2382,7 @@
       <c r="C27" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>308</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -2401,8 +2395,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="str">
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2413,7 +2407,7 @@
       <c r="C28" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>309</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -2426,8 +2420,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="str">
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2438,7 +2432,7 @@
       <c r="C29" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="12" t="s">
         <v>283</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -2451,8 +2445,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="str">
+    <row r="30" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2463,7 +2457,7 @@
       <c r="C30" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>284</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -2476,8 +2470,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="str">
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2858,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2488,7 +2482,7 @@
       <c r="C31" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="12" t="s">
         <v>295</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -2501,8 +2495,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="str">
+    <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2860,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2513,7 +2507,7 @@
       <c r="C32" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>297</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -2526,8 +2520,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="str">
+    <row r="33" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2861,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2538,7 +2532,7 @@
       <c r="C33" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="12" t="s">
         <v>298</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -2551,8 +2545,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="str">
+    <row r="34" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2862,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2563,7 +2557,7 @@
       <c r="C34" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -2576,8 +2570,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="str">
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2588,15 +2582,15 @@
       <c r="C35" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="str">
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2864,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2607,7 +2601,7 @@
       <c r="C36" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>303</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -2620,8 +2614,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="str">
+    <row r="37" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2632,7 +2626,7 @@
       <c r="C37" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>302</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -2645,8 +2639,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="str">
+    <row r="38" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2657,7 +2651,7 @@
       <c r="C38" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="12" t="s">
         <v>301</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -2670,8 +2664,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="str">
+    <row r="39" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2682,7 +2676,7 @@
       <c r="C39" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="12" t="s">
         <v>299</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -2695,8 +2689,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="str">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2705,12 +2699,12 @@
         <v/>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="str">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2719,12 +2713,12 @@
         <v/>
       </c>
       <c r="C41" s="12"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="str">
+    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2735,7 +2729,7 @@
       <c r="C42" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="12" t="s">
         <v>305</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -2748,8 +2742,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="str">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2758,12 +2752,12 @@
         <v/>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="str">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2772,12 +2766,12 @@
         <v/>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="str">
+    <row r="45" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2788,7 +2782,7 @@
       <c r="C45" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="12" t="s">
         <v>329</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -2801,8 +2795,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="str">
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2813,7 +2807,7 @@
       <c r="C46" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>330</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -2826,8 +2820,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="str">
+    <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2838,7 +2832,7 @@
       <c r="C47" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="12" t="s">
         <v>331</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -2851,8 +2845,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="str">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2861,12 +2855,12 @@
         <v/>
       </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="15"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="str">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="str">
         <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B2860,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2875,119 +2869,119 @@
         <v/>
       </c>
       <c r="C49" s="12"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="10"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
       <c r="B52" s="12"/>
-      <c r="D52" s="15"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="10"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="15"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="15"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="15"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" s="13"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C76" s="13"/>
     </row>
   </sheetData>
@@ -3015,15 +3009,15 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="56.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3050,7 +3044,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3063,7 +3057,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3076,7 +3070,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3089,7 +3083,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3102,7 +3096,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3115,7 +3109,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3128,7 +3122,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3141,7 +3135,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3167,7 +3161,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3180,7 +3174,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3193,7 +3187,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3206,7 +3200,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1885,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -3240,13 +3234,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -3266,7 +3260,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -3275,7 +3269,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -3284,7 +3278,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -3293,7 +3287,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -3302,7 +3296,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -3311,7 +3305,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +3314,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -3329,7 +3323,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -3338,7 +3332,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -3347,7 +3341,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -3356,7 +3350,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -3365,7 +3359,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -3374,7 +3368,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -3383,7 +3377,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -3392,7 +3386,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -3401,7 +3395,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -3410,7 +3404,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -3419,7 +3413,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>70</v>
       </c>
@@ -3428,7 +3422,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>72</v>
       </c>
@@ -3437,7 +3431,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -3446,7 +3440,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>76</v>
       </c>
@@ -3455,7 +3449,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -3464,7 +3458,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -3473,7 +3467,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>82</v>
       </c>
@@ -3482,7 +3476,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -3491,13 +3485,13 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -3506,7 +3500,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -3515,7 +3509,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>90</v>
       </c>
@@ -3524,7 +3518,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>92</v>
       </c>
@@ -3533,7 +3527,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>94</v>
       </c>
@@ -3542,7 +3536,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>96</v>
       </c>
@@ -3551,919 +3545,919 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>100</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>101</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>102</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>108</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>109</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>111</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>112</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>113</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>114</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>115</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>116</v>
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>120</v>
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>121</v>
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>122</v>
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>123</v>
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>125</v>
       </c>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>127</v>
       </c>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>128</v>
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>130</v>
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>131</v>
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>132</v>
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>133</v>
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>134</v>
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>135</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>136</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>137</v>
       </c>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>138</v>
       </c>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>139</v>
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>140</v>
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>141</v>
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>142</v>
       </c>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>143</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>144</v>
       </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>145</v>
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>146</v>
       </c>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>147</v>
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>148</v>
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>149</v>
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>150</v>
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>151</v>
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>152</v>
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>153</v>
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>154</v>
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>155</v>
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>156</v>
       </c>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>157</v>
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>158</v>
       </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>159</v>
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>160</v>
       </c>
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>161</v>
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>162</v>
       </c>
       <c r="D99" s="8"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>163</v>
       </c>
       <c r="D100" s="8"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>164</v>
       </c>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>165</v>
       </c>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>166</v>
       </c>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>167</v>
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>168</v>
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>169</v>
       </c>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>170</v>
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>171</v>
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>172</v>
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>173</v>
       </c>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>174</v>
       </c>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>175</v>
       </c>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>176</v>
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>177</v>
       </c>
       <c r="D114" s="8"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>178</v>
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>179</v>
       </c>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>180</v>
       </c>
       <c r="D117" s="8"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>181</v>
       </c>
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>182</v>
       </c>
       <c r="D119" s="8"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>183</v>
       </c>
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>184</v>
       </c>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>185</v>
       </c>
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>186</v>
       </c>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>187</v>
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>188</v>
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>189</v>
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>190</v>
       </c>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>191</v>
       </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>192</v>
       </c>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>193</v>
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>194</v>
       </c>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>195</v>
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>196</v>
       </c>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>198</v>
       </c>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>199</v>
       </c>
       <c r="D136" s="8"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>200</v>
       </c>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>201</v>
       </c>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>202</v>
       </c>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>203</v>
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>204</v>
       </c>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>205</v>
       </c>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>206</v>
       </c>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>207</v>
       </c>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>208</v>
       </c>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>209</v>
       </c>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>210</v>
       </c>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>211</v>
       </c>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>212</v>
       </c>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>213</v>
       </c>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>214</v>
       </c>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>215</v>
       </c>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>216</v>
       </c>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>217</v>
       </c>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>218</v>
       </c>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>219</v>
       </c>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>220</v>
       </c>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>221</v>
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>222</v>
       </c>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>223</v>
       </c>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>224</v>
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>225</v>
       </c>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>86</v>
       </c>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>226</v>
       </c>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>227</v>
       </c>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>228</v>
       </c>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>229</v>
       </c>
       <c r="D167" s="8"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>230</v>
       </c>
       <c r="D168" s="8"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>231</v>
       </c>
       <c r="D169" s="8"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>232</v>
       </c>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>233</v>
       </c>
       <c r="D171" s="8"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>234</v>
       </c>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>235</v>
       </c>
       <c r="D173" s="8"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>236</v>
       </c>
       <c r="D174" s="8"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>237</v>
       </c>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>238</v>
       </c>
       <c r="D176" s="8"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>239</v>
       </c>
       <c r="D177" s="8"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>240</v>
       </c>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>241</v>
       </c>
       <c r="D179" s="8"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>242</v>
       </c>
       <c r="D180" s="8"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>243</v>
       </c>
       <c r="D181" s="8"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>244</v>
       </c>
       <c r="D182" s="8"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>245</v>
       </c>
       <c r="D183" s="8"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>246</v>
       </c>
       <c r="D184" s="8"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>247</v>
       </c>
       <c r="D185" s="8"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>248</v>
       </c>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>249</v>
       </c>
